--- a/biology/Mycologie/Pleurotus_dryinus/Pleurotus_dryinus.xlsx
+++ b/biology/Mycologie/Pleurotus_dryinus/Pleurotus_dryinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleurotus dryinus, de son nom vernaculaire, le Pleurote voilé, est un champignon basidiomycète du genre Pleurotus dans la famille des Pleurotaceae à pied excentré et cespiteux, se développant en touffes serrées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau charnu, blanc puis beige à orangé, jusqu'à 12 cm. Restes du voile annuliforme visibles.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur troncs d'arbres dépérissants.
 </t>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commun à rare. En Europe et Afrique du Nord[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commun à rare. En Europe et Afrique du Nord.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>P. corticatus
 P. tephrotrichus</t>
